--- a/StructureDefinition-jp-medicationrequest-dispenserequest-instructionfordispense.xlsx
+++ b/StructureDefinition-jp-medicationrequest-dispenserequest-instructionfordispense.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.3</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -406,7 +406,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200250.2.2.30.10</t>
+    <t>http://jpfhir.jp/fhir/ePrescription/ValueSet/jami-ePreDispenseInstruction</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -856,7 +856,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="32.05859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.33203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
